--- a/downloaded_files/CVES125_Tutorial-35509.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>jana mohamed salama abdelaty essayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ديفيد مارك مكرم شاكر قرياقص</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Mark Makram Shaker</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220239</x:t>
   </x:si>
   <x:si>
@@ -283,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mawad Abdeltawab Awad Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أحمد محمود سامى بشر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1220203</x:t>
@@ -434,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1113,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.8818637384</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.7876664352</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.7876664352</x:v>
+        <x:v>45907.7041830671</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.4378276273</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6793717245</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4378276273</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1770,70 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45906.6649359143</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35509.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>shruok adel mohammed ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عادل ابراهيم حسين السعيد عبد الله شعيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adel Ebrahim Hussein Shoaib</x:t>
   </x:si>
   <x:si>
     <x:t>1240330</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1223,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7876664352</x:v>
+        <x:v>45907.7041830671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.4378276273</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4378276273</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35509.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>ALI SHEHAB ELDIN ALI SAYED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد جاد مرشدي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.6673467245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.4378276273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4378276273</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35509.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>ahmed mohamed hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>4230140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد نبيل احمد سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Nabil</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220004</x:t>
   </x:si>
   <x:si>
@@ -150,15 +159,6 @@
     <x:t>shruok adel mohammed ali</x:t>
   </x:si>
   <x:si>
-    <x:t>1240330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230203</x:t>
   </x:si>
   <x:si>
@@ -222,15 +222,6 @@
     <x:t>Fahd Hassan Fahmy Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1230315</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عبدالرحيم سالم عبدالهادي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHAMED ABDALRAHIM SALEM ABDALHADY</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230174</x:t>
   </x:si>
   <x:si>
@@ -238,15 +229,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Monir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
   </x:si>
   <x:si>
     <x:t>1220201</x:t>
@@ -398,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -706,8 +688,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.990625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.730625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.780625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.880625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -917,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4147317477</x:v>
+        <x:v>45927.4836165509</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4345076042</x:v>
+        <x:v>45907.4147317477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6643803588</x:v>
+        <x:v>45907.4345076042</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45906.6643803588</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7041830671</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1461,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.4378276273</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4378276273</x:v>
+        <x:v>45907.6648454861</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1606,70 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.6649359143</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6648454861</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CVES125_Tutorial-35509.xlsx
+++ b/downloaded_files/CVES125_Tutorial-35509.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>jana mohamed salama abdelaty essayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه عصام كامل على عقل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba essam kamel</x:t>
   </x:si>
   <x:si>
     <x:t>1220239</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1091,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4159268518</x:v>
+        <x:v>45933.6282729977</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4161357292</x:v>
+        <x:v>45909.4159268518</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45907.4161357292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.415127581</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.415127581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6673400463</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.7564917014</x:v>
+        <x:v>45907.6673400463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4167710995</x:v>
+        <x:v>45912.7564917014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45907.4167710995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4378276273</x:v>
+        <x:v>45907.415249919</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45907.4378276273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648454861</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6648454861</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
